--- a/data/xlsx/03032019.xlsx
+++ b/data/xlsx/03032019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC453AAE-BD35-4845-BD69-1FD055D12299}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32477DAC-1E1A-6B4A-A458-7A8E137F97AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="03032019" sheetId="1" r:id="rId1"/>
@@ -284,6 +284,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -331,8 +334,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,7 +677,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -714,7 +717,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>43527</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -740,7 +743,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>43527</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -766,7 +769,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>43527</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -792,7 +795,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>43527</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -818,7 +821,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>43527</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -844,7 +847,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>43527</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -870,7 +873,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>43527</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -888,7 +891,7 @@
       <c r="F8">
         <v>37.872186999999997</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>-122.266204</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -896,7 +899,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>43527</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -922,7 +925,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>43527</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -948,7 +951,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>43527</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -974,7 +977,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>43527</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1000,7 +1003,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>43527</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1026,7 +1029,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>43527</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1052,7 +1055,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>43527</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1070,7 +1073,7 @@
       <c r="F15">
         <v>37.868706000000003</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>-122.259184</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -1078,7 +1081,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>43527</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1104,7 +1107,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>43527</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1130,7 +1133,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>43527</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1156,7 +1159,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>43527</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1182,7 +1185,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>43527</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1208,7 +1211,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>43527</v>
       </c>
       <c r="B21" s="2" t="s">
